--- a/data/trans_bre/P32-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P32-Provincia-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-7.605103889898206</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-4.041711456400611</v>
+        <v>-4.041711456400612</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.3264093649113162</v>
@@ -660,25 +660,25 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-5.209124871761151</v>
+        <v>-5.367452603793406</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-25.9526925146291</v>
+        <v>-26.83292041047969</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-15.1836523150425</v>
+        <v>-15.12148504476593</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-8.435493566580748</v>
+        <v>-8.018073070002137</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.9289424479970035</v>
+        <v>-0.9347300243802908</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.774231912529552</v>
+        <v>-0.7648949378105179</v>
       </c>
       <c r="J5" s="6" t="inlineStr"/>
     </row>
@@ -690,25 +690,25 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.227546882709874</v>
+        <v>3.877791591380861</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-8.105063355144198</v>
+        <v>-8.448651316152372</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5050866538121159</v>
+        <v>1.275502944540651</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-1.564766082717368</v>
+        <v>-1.576408359495644</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>5.973080035913752</v>
+        <v>2.400318120913875</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>-0.3424858442298076</v>
+        <v>-0.3591188722902645</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1172396508349725</v>
+        <v>0.2778899600243352</v>
       </c>
       <c r="J6" s="6" t="inlineStr"/>
     </row>
@@ -745,7 +745,7 @@
         <v>-0.1689309067192947</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.6945905091686241</v>
+        <v>-0.694590509168624</v>
       </c>
     </row>
     <row r="8">
@@ -756,22 +756,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-7.801830390602049</v>
+        <v>-7.900477602293996</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-10.28266898813086</v>
+        <v>-10.23760949754239</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-2.182166959383059</v>
+        <v>-2.101252793177803</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-3.898231966001095</v>
+        <v>-3.668507990149147</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.9228473243757401</v>
+        <v>-0.9220810032696609</v>
       </c>
       <c r="I8" s="6" t="inlineStr"/>
       <c r="J8" s="6" t="inlineStr"/>
@@ -784,22 +784,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3443306657633378</v>
+        <v>-0.2357228754804018</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-1.891092838216318</v>
+        <v>-1.695188418976762</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3.323003613619942</v>
+        <v>3.445597455233114</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6064130506662357</v>
+        <v>0.5564199436300746</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.727379723544759</v>
+        <v>0.7791198500112628</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.1231286131483854</v>
+        <v>-0.1319853313326485</v>
       </c>
       <c r="I9" s="6" t="inlineStr"/>
       <c r="J9" s="6" t="inlineStr"/>
@@ -848,22 +848,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.887281702464339</v>
+        <v>-2.571460243972528</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.783652383529952</v>
+        <v>-3.470083785480021</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-4.056002180657194</v>
+        <v>-4.085508224788714</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-15.7744090467585</v>
+        <v>-16.45714012352573</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="inlineStr"/>
       <c r="I11" s="6" t="inlineStr"/>
       <c r="J11" s="6" t="n">
-        <v>-0.9485110544054436</v>
+        <v>-0.9522076066041514</v>
       </c>
     </row>
     <row r="12">
@@ -877,19 +877,19 @@
         <v>0</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.417645344658133</v>
+        <v>1.216716473395544</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.6635311808305804</v>
+        <v>0.7395475477204752</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-4.674325145550689</v>
+        <v>-4.89170184746496</v>
       </c>
       <c r="G12" s="6" t="inlineStr"/>
       <c r="H12" s="6" t="inlineStr"/>
       <c r="I12" s="6" t="inlineStr"/>
       <c r="J12" s="6" t="n">
-        <v>-0.4038948941007055</v>
+        <v>-0.4631786855964114</v>
       </c>
     </row>
     <row r="13">
@@ -936,19 +936,19 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-5.311997552847967</v>
+        <v>-5.235278280418011</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-5.940929532496996</v>
+        <v>-6.717157341454532</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-5.778672654206593</v>
+        <v>-5.945678908101814</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-7.536677971020173</v>
+        <v>-8.172338679328851</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.8348342069230926</v>
+        <v>-0.8529290015367997</v>
       </c>
       <c r="H14" s="6" t="n">
         <v>-1</v>
@@ -968,28 +968,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.558485527602792</v>
+        <v>3.598545796522565</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2.605572507317183</v>
+        <v>1.651530473028572</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.561877349960449</v>
+        <v>1.435876629944118</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-0.9182769499197466</v>
+        <v>-1.229098121223307</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.67113109164889</v>
+        <v>1.399013876110417</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.274081730759149</v>
+        <v>1.731068556308689</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.08275137738422</v>
+        <v>1.226152188710969</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.03179364374876689</v>
+        <v>-0.1008601029482276</v>
       </c>
     </row>
     <row r="16">
@@ -1013,7 +1013,7 @@
         <v>-3.164029865488299</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4.32873656001445</v>
+        <v>4.328736560014451</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3267110258963987</v>
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.699049996522824</v>
+        <v>-4.507010445068444</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-12.98434083073893</v>
+        <v>-13.0933248362136</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-8.171175372906859</v>
+        <v>-8.585146732308951</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>0</v>
@@ -1064,20 +1064,20 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>13.67486638196523</v>
+        <v>12.75416271277324</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-1.313277679597015</v>
+        <v>-1.409816959166922</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-1.008812856955591</v>
+        <v>-1.028182859843271</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>22.65955634043678</v>
+        <v>20.21144240837146</v>
       </c>
       <c r="G18" s="6" t="inlineStr"/>
       <c r="H18" s="6" t="n">
-        <v>0.08054941533898902</v>
+        <v>0.5478761086091554</v>
       </c>
       <c r="I18" s="6" t="inlineStr"/>
       <c r="J18" s="6" t="inlineStr"/>
@@ -1126,22 +1126,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-3.840576074833522</v>
+        <v>-3.966147436846768</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-6.012825024332017</v>
+        <v>-6.05755740399505</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-3.561715107435422</v>
+        <v>-3.992197203333122</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-6.919726163405499</v>
+        <v>-6.513759338957217</v>
       </c>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="inlineStr"/>
       <c r="I20" s="6" t="inlineStr"/>
       <c r="J20" s="6" t="n">
-        <v>-0.8786000033446775</v>
+        <v>-0.8670252921802509</v>
       </c>
     </row>
     <row r="21">
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>3.005753227310833</v>
+        <v>2.663101627123691</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>1.039898754356124</v>
+        <v>0.7759018156237534</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2.796603138890707</v>
+        <v>2.850475976893916</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1.681110668505277</v>
+        <v>1.491219019493487</v>
       </c>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="inlineStr"/>
       <c r="I21" s="6" t="inlineStr"/>
       <c r="J21" s="6" t="n">
-        <v>0.7710123792384495</v>
+        <v>0.6554951533692638</v>
       </c>
     </row>
     <row r="22">
@@ -1191,7 +1191,7 @@
         <v>-2.78531484984862</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>-5.521940977563208</v>
+        <v>-5.52194097756321</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>-1</v>
@@ -1203,7 +1203,7 @@
         <v>-0.2816321862421482</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>-0.3893721585154206</v>
+        <v>-0.3893721585154207</v>
       </c>
     </row>
     <row r="23">
@@ -1214,26 +1214,26 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-4.038499816380144</v>
+        <v>-4.328195236207563</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-6.313727097824316</v>
+        <v>-6.519885542892075</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-7.272242616225168</v>
+        <v>-7.40030594383453</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-11.52520383918818</v>
+        <v>-11.32860450528692</v>
       </c>
       <c r="G23" s="6" t="inlineStr"/>
       <c r="H23" s="6" t="n">
-        <v>-1</v>
+        <v>-0.9307964821279573</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.6083560362127949</v>
+        <v>-0.6316987791863578</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.6705845988682019</v>
+        <v>-0.6665965684909254</v>
       </c>
     </row>
     <row r="24">
@@ -1244,26 +1244,26 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-0.6068649258494365</v>
+        <v>-0.6288286027921928</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-0.5700381461482555</v>
+        <v>-0.7554156107228935</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.081729482022467</v>
+        <v>1.529640734932563</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.8983120185330165</v>
+        <v>0.2432748704738878</v>
       </c>
       <c r="G24" s="6" t="inlineStr"/>
       <c r="H24" s="6" t="n">
-        <v>-0.02451756510051108</v>
+        <v>0.01771935277184954</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2637645774399569</v>
+        <v>0.2187635826124189</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.09490960124132571</v>
+        <v>0.03869367930496918</v>
       </c>
     </row>
     <row r="25">
@@ -1287,7 +1287,7 @@
         <v>-1.515102393178996</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.9840588385004977</v>
+        <v>0.9840588385004974</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>-0.4987999615511404</v>
@@ -1299,7 +1299,7 @@
         <v>-0.490846429012345</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.4370670469580267</v>
+        <v>0.4370670469580265</v>
       </c>
     </row>
     <row r="26">
@@ -1310,28 +1310,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-2.377874639682389</v>
+        <v>-2.398569936633958</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-4.806326630689706</v>
+        <v>-5.059516019485819</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-3.568835704907635</v>
+        <v>-3.779336145808982</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-2.000900174120992</v>
+        <v>-1.780500958390804</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.8793722859537141</v>
+        <v>-0.8840360488854642</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.8780355777999802</v>
+        <v>-0.8991854210467183</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.7408651854921546</v>
+        <v>-0.7203385452368911</v>
       </c>
     </row>
     <row r="27">
@@ -1342,28 +1342,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.8643227359469233</v>
+        <v>0.8691964023029491</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.8359719259050876</v>
+        <v>0.6591290882274329</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1.032875561375511</v>
+        <v>0.7796503356136215</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>5.82265643491534</v>
+        <v>5.6563305044205</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.35488148348992</v>
+        <v>2.378599413541458</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.5318244788647153</v>
+        <v>0.4742189333086671</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.7513351860465408</v>
+        <v>0.5373558337545101</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>5.182982943058754</v>
+        <v>4.815425531136547</v>
       </c>
     </row>
     <row r="28">
@@ -1387,7 +1387,7 @@
         <v>-2.003965908189488</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>-3.048362875924135</v>
+        <v>-3.048362875924134</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>-0.4593916467689654</v>
@@ -1399,7 +1399,7 @@
         <v>-0.3811339446698576</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>-0.4691831168592134</v>
+        <v>-0.4691831168592133</v>
       </c>
     </row>
     <row r="29">
@@ -1410,28 +1410,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-2.315676661711513</v>
+        <v>-2.355894450501183</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-6.087289620827785</v>
+        <v>-6.134478069253145</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-3.403424983727524</v>
+        <v>-3.460012287130276</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-4.801769284458444</v>
+        <v>-5.039948303098669</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>-0.7403519712593938</v>
+        <v>-0.7265522166204206</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>-0.8097070352664865</v>
+        <v>-0.8047115401946162</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>-0.5679299537330806</v>
+        <v>-0.5847126988641878</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>-0.6392610166431</v>
+        <v>-0.6612507445450537</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1442,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-0.07547619488036342</v>
+        <v>-0.03754927254446462</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-3.06640672631763</v>
+        <v>-3.135448813304663</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-0.3558297069517118</v>
+        <v>-0.5701889687640828</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>-0.9988692906327408</v>
+        <v>-1.284787417336118</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>-0.02456453440379503</v>
+        <v>0.04302555009901984</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>-0.4934150937630316</v>
+        <v>-0.4920998266354251</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>-0.06619411337490948</v>
+        <v>-0.1222837039667693</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>-0.1440253942316167</v>
+        <v>-0.1954339101711324</v>
       </c>
     </row>
     <row r="31">
